--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H2">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N2">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q2">
-        <v>0.02201428828444444</v>
+        <v>0.7508038858868888</v>
       </c>
       <c r="R2">
-        <v>0.19812859456</v>
+        <v>6.757234972982</v>
       </c>
       <c r="S2">
-        <v>6.916210386750187E-06</v>
+        <v>0.0001772774646872101</v>
       </c>
       <c r="T2">
-        <v>6.916210386750185E-06</v>
+        <v>0.0001772774646872101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H3">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P3">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q3">
-        <v>0.02024613721777778</v>
+        <v>0.3443324316495555</v>
       </c>
       <c r="R3">
-        <v>0.18221523496</v>
+        <v>3.098991884846</v>
       </c>
       <c r="S3">
-        <v>6.360711857130925E-06</v>
+        <v>8.130269653613849E-05</v>
       </c>
       <c r="T3">
-        <v>6.360711857130923E-06</v>
+        <v>8.130269653613847E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H4">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N4">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q4">
-        <v>0.1030776662311111</v>
+        <v>2.731143936145445</v>
       </c>
       <c r="R4">
-        <v>0.9276989960800001</v>
+        <v>24.580295425309</v>
       </c>
       <c r="S4">
-        <v>3.238382347946847E-05</v>
+        <v>0.0006448691619700195</v>
       </c>
       <c r="T4">
-        <v>3.238382347946846E-05</v>
+        <v>0.0006448691619700194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H5">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N5">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q5">
-        <v>0.3330031533866666</v>
+        <v>7.158131984203777</v>
       </c>
       <c r="R5">
-        <v>2.99702838048</v>
+        <v>64.42318785783399</v>
       </c>
       <c r="S5">
-        <v>0.0001046193198941998</v>
+        <v>0.001690155730290466</v>
       </c>
       <c r="T5">
-        <v>0.0001046193198941998</v>
+        <v>0.001690155730290466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H6">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N6">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q6">
-        <v>0.01150493375555556</v>
+        <v>0.2640252662074444</v>
       </c>
       <c r="R6">
-        <v>0.1035444038</v>
+        <v>2.376227395867</v>
       </c>
       <c r="S6">
-        <v>3.614495336434368E-06</v>
+        <v>6.234081986846952E-05</v>
       </c>
       <c r="T6">
-        <v>3.614495336434366E-06</v>
+        <v>6.234081986846952E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H7">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N7">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O7">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P7">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q7">
-        <v>0.04408929636444444</v>
+        <v>0.3442237859738889</v>
       </c>
       <c r="R7">
-        <v>0.39680366728</v>
+        <v>3.098014073765</v>
       </c>
       <c r="S7">
-        <v>1.385149706046802E-05</v>
+        <v>8.127704345909205E-05</v>
       </c>
       <c r="T7">
-        <v>1.385149706046802E-05</v>
+        <v>8.127704345909205E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N8">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q8">
-        <v>10.19118687514489</v>
+        <v>20.43670490477089</v>
       </c>
       <c r="R8">
-        <v>91.72068187630401</v>
+        <v>183.930344142938</v>
       </c>
       <c r="S8">
-        <v>0.003201756586834304</v>
+        <v>0.004825450827014323</v>
       </c>
       <c r="T8">
-        <v>0.003201756586834304</v>
+        <v>0.004825450827014323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P9">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q9">
         <v>9.372647674101556</v>
@@ -1013,10 +1013,10 @@
         <v>84.353829066914</v>
       </c>
       <c r="S9">
-        <v>0.002944596816276636</v>
+        <v>0.002213040246999361</v>
       </c>
       <c r="T9">
-        <v>0.002944596816276635</v>
+        <v>0.002213040246999361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N10">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q10">
-        <v>47.71827031798023</v>
+        <v>74.34109455830345</v>
       </c>
       <c r="R10">
-        <v>429.464432861822</v>
+        <v>669.0698510247311</v>
       </c>
       <c r="S10">
-        <v>0.01499160874731393</v>
+        <v>0.01755318667510686</v>
       </c>
       <c r="T10">
-        <v>0.01499160874731393</v>
+        <v>0.01755318667510686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N11">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q11">
-        <v>154.1588500307813</v>
+        <v>194.8426663479117</v>
       </c>
       <c r="R11">
-        <v>1387.429650277032</v>
+        <v>1753.583997131206</v>
       </c>
       <c r="S11">
-        <v>0.04843195591954431</v>
+        <v>0.04600564082357125</v>
       </c>
       <c r="T11">
-        <v>0.04843195591954431</v>
+        <v>0.04600564082357125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N12">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q12">
-        <v>5.326037724866111</v>
+        <v>7.186705548961445</v>
       </c>
       <c r="R12">
-        <v>47.93433952379501</v>
+        <v>64.680349940653</v>
       </c>
       <c r="S12">
-        <v>0.001673276780833795</v>
+        <v>0.001696902431010231</v>
       </c>
       <c r="T12">
-        <v>0.001673276780833795</v>
+        <v>0.001696902431010231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N13">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O13">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P13">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q13">
-        <v>20.41048307526689</v>
+        <v>9.369690364403889</v>
       </c>
       <c r="R13">
-        <v>183.694347677402</v>
+        <v>84.327213279635</v>
       </c>
       <c r="S13">
-        <v>0.006412344256593447</v>
+        <v>0.002212341976285328</v>
       </c>
       <c r="T13">
-        <v>0.006412344256593446</v>
+        <v>0.002212341976285327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H14">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N14">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q14">
-        <v>38.98568710947733</v>
+        <v>61.55597543139311</v>
       </c>
       <c r="R14">
-        <v>350.871183985296</v>
+        <v>554.003778882538</v>
       </c>
       <c r="S14">
-        <v>0.01224810044445934</v>
+        <v>0.01453440434439836</v>
       </c>
       <c r="T14">
-        <v>0.01224810044445934</v>
+        <v>0.01453440434439836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H15">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P15">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q15">
-        <v>35.85442148068733</v>
+        <v>28.23069925619044</v>
       </c>
       <c r="R15">
-        <v>322.689793326186</v>
+        <v>254.076293305714</v>
       </c>
       <c r="S15">
-        <v>0.0112643533623057</v>
+        <v>0.006665744390191556</v>
       </c>
       <c r="T15">
-        <v>0.0112643533623057</v>
+        <v>0.006665744390191554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H16">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N16">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q16">
-        <v>182.5429735332753</v>
+        <v>223.9176330772146</v>
       </c>
       <c r="R16">
-        <v>1642.886761799478</v>
+        <v>2015.258697694931</v>
       </c>
       <c r="S16">
-        <v>0.05734937206537831</v>
+        <v>0.05287073100827005</v>
       </c>
       <c r="T16">
-        <v>0.0573493720653783</v>
+        <v>0.05287073100827003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H17">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N17">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q17">
-        <v>589.7241181117519</v>
+        <v>586.8720245551561</v>
       </c>
       <c r="R17">
-        <v>5307.517063005766</v>
+        <v>5281.848220996406</v>
       </c>
       <c r="S17">
-        <v>0.1852731289016333</v>
+        <v>0.1385703864413164</v>
       </c>
       <c r="T17">
-        <v>0.1852731289016333</v>
+        <v>0.1385703864413164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H18">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N18">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q18">
-        <v>20.37439238616167</v>
+        <v>21.64657523147256</v>
       </c>
       <c r="R18">
-        <v>183.369531475455</v>
+        <v>194.819177083253</v>
       </c>
       <c r="S18">
-        <v>0.006401005675230775</v>
+        <v>0.005111121623542767</v>
       </c>
       <c r="T18">
-        <v>0.006401005675230774</v>
+        <v>0.005111121623542766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H19">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N19">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O19">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P19">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q19">
-        <v>78.07890451565531</v>
+        <v>28.22179174962611</v>
       </c>
       <c r="R19">
-        <v>702.7101406408979</v>
+        <v>253.996125746635</v>
       </c>
       <c r="S19">
-        <v>0.02452998359155808</v>
+        <v>0.006663641177608226</v>
       </c>
       <c r="T19">
-        <v>0.02452998359155807</v>
+        <v>0.006663641177608226</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H20">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I20">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J20">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N20">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q20">
-        <v>2.320961757457778</v>
+        <v>0.5234535973102221</v>
       </c>
       <c r="R20">
-        <v>20.88865581712</v>
+        <v>4.711082375792</v>
       </c>
       <c r="S20">
-        <v>0.000729174598186859</v>
+        <v>0.0001235962258012822</v>
       </c>
       <c r="T20">
-        <v>0.0007291745981868587</v>
+        <v>0.0001235962258012822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H21">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I21">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J21">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.352974</v>
       </c>
       <c r="O21">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P21">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q21">
-        <v>2.134545964491112</v>
+        <v>0.2400654197528888</v>
       </c>
       <c r="R21">
-        <v>19.21091368042</v>
+        <v>2.160588777776</v>
       </c>
       <c r="S21">
-        <v>0.0006706085057058515</v>
+        <v>5.668349588067338E-05</v>
       </c>
       <c r="T21">
-        <v>0.0006706085057058512</v>
+        <v>5.668349588067337E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H22">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I22">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J22">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N22">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q22">
-        <v>10.86745654818445</v>
+        <v>1.904128554767111</v>
       </c>
       <c r="R22">
-        <v>97.80710893366002</v>
+        <v>17.137156992904</v>
       </c>
       <c r="S22">
-        <v>0.003414219659747969</v>
+        <v>0.0004495968773908149</v>
       </c>
       <c r="T22">
-        <v>0.003414219659747968</v>
+        <v>0.0004495968773908149</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H23">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I23">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J23">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N23">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q23">
-        <v>35.10845202610667</v>
+        <v>4.990584102700443</v>
       </c>
       <c r="R23">
-        <v>315.97606823496</v>
+        <v>44.915256924304</v>
       </c>
       <c r="S23">
-        <v>0.01102999276779969</v>
+        <v>0.001178361105563478</v>
       </c>
       <c r="T23">
-        <v>0.01102999276779968</v>
+        <v>0.001178361105563478</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H24">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I24">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J24">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N24">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q24">
-        <v>1.212962732372223</v>
+        <v>0.1840759990391111</v>
       </c>
       <c r="R24">
-        <v>10.91666459135</v>
+        <v>1.656683991352</v>
       </c>
       <c r="S24">
-        <v>0.0003810754787971726</v>
+        <v>4.346344902154002E-05</v>
       </c>
       <c r="T24">
-        <v>0.0003810754787971724</v>
+        <v>4.346344902154002E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H25">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I25">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J25">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N25">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O25">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P25">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q25">
-        <v>4.648325190117778</v>
+        <v>0.2399896729822222</v>
       </c>
       <c r="R25">
-        <v>41.83492671106001</v>
+        <v>2.15990705684</v>
       </c>
       <c r="S25">
-        <v>0.00146036040527378</v>
+        <v>5.666561079015314E-05</v>
       </c>
       <c r="T25">
-        <v>0.00146036040527378</v>
+        <v>5.666561079015314E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H26">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I26">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J26">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N26">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q26">
-        <v>29.9479836218969</v>
+        <v>77.97916345205243</v>
       </c>
       <c r="R26">
-        <v>269.531852597072</v>
+        <v>701.8124710684721</v>
       </c>
       <c r="S26">
-        <v>0.009408732760819974</v>
+        <v>0.01841219612080169</v>
       </c>
       <c r="T26">
-        <v>0.009408732760819973</v>
+        <v>0.01841219612080169</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H27">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I27">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J27">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.352974</v>
       </c>
       <c r="O27">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P27">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q27">
-        <v>27.54261132453356</v>
+        <v>35.76267448020177</v>
       </c>
       <c r="R27">
-        <v>247.883501920802</v>
+        <v>321.864070321816</v>
       </c>
       <c r="S27">
-        <v>0.008653038974490272</v>
+        <v>0.008444170816717497</v>
       </c>
       <c r="T27">
-        <v>0.008653038974490268</v>
+        <v>0.008444170816717495</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H28">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I28">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J28">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N28">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q28">
-        <v>140.2256670843163</v>
+        <v>283.6590531976182</v>
       </c>
       <c r="R28">
-        <v>1262.031003758846</v>
+        <v>2552.931478778564</v>
       </c>
       <c r="S28">
-        <v>0.04405457958242581</v>
+        <v>0.06697668822937343</v>
       </c>
       <c r="T28">
-        <v>0.0440545795824258</v>
+        <v>0.06697668822937342</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H29">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I29">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J29">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N29">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q29">
-        <v>453.0136452655973</v>
+        <v>743.4499934003848</v>
       </c>
       <c r="R29">
-        <v>4077.122807390376</v>
+        <v>6691.049940603464</v>
       </c>
       <c r="S29">
-        <v>0.1423229149288192</v>
+        <v>0.1755410865995424</v>
       </c>
       <c r="T29">
-        <v>0.1423229149288192</v>
+        <v>0.1755410865995424</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H30">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I30">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J30">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N30">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q30">
-        <v>15.65117905382612</v>
+        <v>27.42190041377022</v>
       </c>
       <c r="R30">
-        <v>140.860611484435</v>
+        <v>246.797103723932</v>
       </c>
       <c r="S30">
-        <v>0.004917117725465949</v>
+        <v>0.006474773337801706</v>
       </c>
       <c r="T30">
-        <v>0.004917117725465947</v>
+        <v>0.006474773337801706</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H31">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I31">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J31">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N31">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O31">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P31">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q31">
-        <v>59.9785697526429</v>
+        <v>35.75139044310444</v>
       </c>
       <c r="R31">
-        <v>539.8071277737861</v>
+        <v>321.76251398794</v>
       </c>
       <c r="S31">
-        <v>0.01884341668219041</v>
+        <v>0.008441506465179559</v>
       </c>
       <c r="T31">
-        <v>0.01884341668219041</v>
+        <v>0.008441506465179558</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H32">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N32">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q32">
-        <v>49.76796732583288</v>
+        <v>113.0479217968662</v>
       </c>
       <c r="R32">
-        <v>447.911705932496</v>
+        <v>1017.431296171796</v>
       </c>
       <c r="S32">
-        <v>0.01563556032786166</v>
+        <v>0.0266925216305096</v>
       </c>
       <c r="T32">
-        <v>0.01563556032786166</v>
+        <v>0.0266925216305096</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H33">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.352974</v>
       </c>
       <c r="O33">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P33">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q33">
-        <v>45.77068686070955</v>
+        <v>51.84585021062089</v>
       </c>
       <c r="R33">
-        <v>411.936181746386</v>
+        <v>466.612651895588</v>
       </c>
       <c r="S33">
-        <v>0.01437973809484518</v>
+        <v>0.01224167995485894</v>
       </c>
       <c r="T33">
-        <v>0.01437973809484517</v>
+        <v>0.01224167995485894</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H34">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N34">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q34">
-        <v>233.0289246115642</v>
+        <v>411.2260896793891</v>
       </c>
       <c r="R34">
-        <v>2097.260321504078</v>
+        <v>3701.034807114502</v>
       </c>
       <c r="S34">
-        <v>0.07321050074330845</v>
+        <v>0.09709741779703603</v>
       </c>
       <c r="T34">
-        <v>0.07321050074330845</v>
+        <v>0.09709741779703601</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H35">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N35">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q35">
-        <v>752.8242495514852</v>
+        <v>1077.794028471272</v>
       </c>
       <c r="R35">
-        <v>6775.418245963368</v>
+        <v>9700.146256241453</v>
       </c>
       <c r="S35">
-        <v>0.2365141596616823</v>
+        <v>0.2544853541836716</v>
       </c>
       <c r="T35">
-        <v>0.2365141596616823</v>
+        <v>0.2544853541836716</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H36">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N36">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q36">
-        <v>26.00934265210611</v>
+        <v>39.75406655142511</v>
       </c>
       <c r="R36">
-        <v>234.084083868955</v>
+        <v>357.7865989628261</v>
       </c>
       <c r="S36">
-        <v>0.008171333248604298</v>
+        <v>0.009386605825725569</v>
       </c>
       <c r="T36">
-        <v>0.008171333248604296</v>
+        <v>0.009386605825725569</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H37">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N37">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O37">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P37">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q37">
-        <v>99.67320462661088</v>
+        <v>51.82949152085222</v>
       </c>
       <c r="R37">
-        <v>897.0588416394979</v>
+        <v>466.46542368767</v>
       </c>
       <c r="S37">
-        <v>0.03131424664799877</v>
+        <v>0.01223781739220802</v>
       </c>
       <c r="T37">
-        <v>0.03131424664799876</v>
+        <v>0.01223781739220802</v>
       </c>
     </row>
   </sheetData>
